--- a/public/assets/docs/products_template.xlsx
+++ b/public/assets/docs/products_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InstalledApps\xampp\htdocs\projects\laravel\drxstock\public\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE3DD27-5F65-4A96-9A5C-383FAB9669E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267221E5-30E6-40BF-8407-420D459E76CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0A5F1DB-5D5A-4260-B600-0A48D22090D0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="434">
   <si>
     <t>Type</t>
   </si>
@@ -1336,6 +1336,9 @@
   </si>
   <si>
     <t>-30.00</t>
+  </si>
+  <si>
+    <t>Reorder Qty</t>
   </si>
 </sst>
 </file>
@@ -1728,19 +1731,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB0FA37-055A-4F5D-A8A6-812300A989B8}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1770,6 +1774,9 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
